--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.225</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.35</v>
+        <v>16.822</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.303</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.235</v>
+        <v>14.8</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.393</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.446</v>
+        <v>7.822</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.51881815842688</v>
+        <v>2.545425058914557</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.29249246563244</v>
+        <v>12.05115246953246</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.53674375453123</v>
+        <v>10.95018734905505</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.53331191091088</v>
+        <v>12.36397110445524</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.71434589689963</v>
+        <v>14.39019631491605</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.60820798844651</v>
+        <v>23.62148137056603</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.51911131015878</v>
+        <v>-3.056264029338156</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.29279730590534</v>
+        <v>19.24341245575657</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.53705768995248</v>
+        <v>31.66334164759422</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.53362793781615</v>
+        <v>31.66795815078572</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.71464209069129</v>
+        <v>12.36802421435355</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.60851591824402</v>
+        <v>36.51718203250137</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.51933435030244</v>
+        <v>-7.008352103812459</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.29301531987168</v>
+        <v>15.68527068365927</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.5372835514177</v>
+        <v>28.89083887864569</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32.53385297132964</v>
+        <v>30.50240693680913</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.71486548944556</v>
+        <v>6.261979899326189</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.60873424970713</v>
+        <v>30.58761098894491</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.51922727536861</v>
+        <v>-8.047003021372777</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.29291670609103</v>
+        <v>13.03219621245341</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.53718562843599</v>
+        <v>23.10397934578117</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32.53375514201144</v>
+        <v>26.16010327973208</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.71476042308985</v>
+        <v>5.007845659555326</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.60863776870337</v>
+        <v>25.7130904667897</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.78819458248099</v>
+        <v>20.87254455942321</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.89725947048228</v>
+        <v>26.11080269780791</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.92176797315784</v>
+        <v>9.681645235122954</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>40.87949784866771</v>
+        <v>23.63007044092243</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.70003596141066</v>
+        <v>26.81123296303486</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.81457787888609</v>
+        <v>33.08874731272304</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.78851139122774</v>
+        <v>46.40007019352622</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.89757847503436</v>
+        <v>50.74412419952191</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.92207449619367</v>
+        <v>15.70766530279395</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.87981618800872</v>
+        <v>46.07342403541777</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.70036372305316</v>
+        <v>63.50610635973591</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.81490780651355</v>
+        <v>67.45663299291046</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.78873756075691</v>
+        <v>40.16701811688039</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.89780379167634</v>
+        <v>46.6502286583366</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.92229341819841</v>
+        <v>10.57378081458951</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.88003002284276</v>
+        <v>41.98362744543421</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.70058513532287</v>
+        <v>59.46000330759402</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>44.81512832437462</v>
+        <v>65.14572956249616</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.78864188635756</v>
+        <v>30.30265939702393</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.8977082470581</v>
+        <v>38.54834227391346</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.92218647264349</v>
+        <v>11.24658271835504</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.87993164890997</v>
+        <v>39.60915796193466</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42.70048777932284</v>
+        <v>52.245658613239</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>44.81503111487903</v>
+        <v>60.42582796600884</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.16575040228659</v>
+        <v>14.43928583165797</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.15612126331642</v>
+        <v>39.16896980208097</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.301167761104</v>
+        <v>36.13609633891429</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.28093677102861</v>
+        <v>37.56797570323407</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.09872713650006</v>
+        <v>12.07692800247305</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.20353829862623</v>
+        <v>33.17571291010795</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14.16604105752822</v>
+        <v>7.055981340298967</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.15642372551687</v>
+        <v>44.27199038348316</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.30147917269018</v>
+        <v>53.67056013569399</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.28125023349153</v>
+        <v>53.46142033607578</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.09902074428638</v>
+        <v>8.662689765002579</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.20384375817406</v>
+        <v>44.35714480321836</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.166262316104</v>
+        <v>3.461660407414481</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.15663985740785</v>
+        <v>40.89303333503253</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.30170313456722</v>
+        <v>51.17193092116865</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.28147336782507</v>
+        <v>52.48839681123678</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17.09924247026719</v>
+        <v>2.611875518011612</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.20406031886942</v>
+        <v>38.31029229952638</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.16615765401603</v>
+        <v>3.230453826843711</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.15654379344396</v>
+        <v>38.85856964332517</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.30160772936558</v>
+        <v>46.61810459904567</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.28137808113494</v>
+        <v>49.55244959449702</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.09913958784333</v>
+        <v>-0.3134598258040491</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.20396615438511</v>
+        <v>31.54568864048511</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.28992049096457</v>
+        <v>32.10237842871234</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.37827929024765</v>
+        <v>36.20424495678718</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.45074596417524</v>
+        <v>6.838951943088386</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>41.61516715595887</v>
+        <v>32.94014013835847</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.34798944271084</v>
+        <v>35.14520564031544</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.44281346077405</v>
+        <v>40.77211028102691</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.29023468872795</v>
+        <v>54.83491669925681</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.37859564169541</v>
+        <v>57.78358464486998</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.45104994709654</v>
+        <v>9.448968906480314</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>41.61548307140169</v>
+        <v>51.64355903200946</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.34831464244019</v>
+        <v>66.9710302816756</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.44314078280212</v>
+        <v>69.99495860636817</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>34.29045906981565</v>
+        <v>48.56209203692322</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.3788191723946</v>
+        <v>53.55789563607023</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.4512671945748</v>
+        <v>4.034932977478984</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41.61569513678327</v>
+        <v>47.09437731200471</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.34853426241724</v>
+        <v>62.5488149718414</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>45.44335951023785</v>
+        <v>67.21141593406817</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.29036568447678</v>
+        <v>37.35895552506047</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.37872593872304</v>
+        <v>44.28496896224648</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.45116263344952</v>
+        <v>4.335460901286506</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.61559927408722</v>
+        <v>44.11094404094733</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.3484393933101</v>
+        <v>55.34859604134276</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.44326481199992</v>
+        <v>62.66929214122921</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.41557873124805</v>
+        <v>13.72738115273996</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.41664279195903</v>
+        <v>37.07155803153567</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.57761944581819</v>
+        <v>37.40412488262307</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.54876949359708</v>
+        <v>37.21928768768394</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>16.48654634231394</v>
+        <v>15.13585680290572</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.60327048516859</v>
+        <v>36.71351088558126</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.41586968456307</v>
+        <v>8.282963411899114</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.41694556673134</v>
+        <v>44.29962337759636</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.5779312037409</v>
+        <v>57.09961669511442</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>32.54908329784004</v>
+        <v>55.26825298903218</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.48684030035257</v>
+        <v>13.02642630060127</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.60357631004541</v>
+        <v>49.39253556353118</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.41609172093349</v>
+        <v>5.407723041929653</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.41716247691592</v>
+        <v>41.76287949186938</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.57815594829425</v>
+        <v>55.46183685924451</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.54930721861857</v>
+        <v>55.11334539022927</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.48706272918933</v>
+        <v>7.972601891855842</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.60379357337608</v>
+        <v>44.46700408269874</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>13.41598620591929</v>
+        <v>5.904462818224257</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.41706555985994</v>
+        <v>40.56884363266829</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.57805968641643</v>
+        <v>51.80101259273037</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.54921107029791</v>
+        <v>52.97922387515094</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.486959088152</v>
+        <v>6.660256755208959</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.60369865073577</v>
+        <v>39.43402303473454</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.70944671310423</v>
+        <v>38.74448696837952</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.7891489099238</v>
+        <v>40.85240178518147</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.83615878426337</v>
+        <v>7.63790292775256</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.01256367965586</v>
+        <v>34.4104328188515</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.76441030085497</v>
+        <v>40.16531722404612</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.85073938102538</v>
+        <v>43.62031827910461</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.70976131149546</v>
+        <v>63.0115451122732</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.7894656571013</v>
+        <v>63.95114316277123</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.83646309547251</v>
+        <v>11.66421317066216</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.01287993815852</v>
+        <v>54.72169250566658</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.76473587735455</v>
+        <v>73.65474081456971</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.85106707538327</v>
+        <v>74.49679741090135</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.70998639782214</v>
+        <v>57.88673383760737</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.78968989669431</v>
+        <v>60.82289643955649</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>24.83668103853432</v>
+        <v>7.082277080059594</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>41.01309269883886</v>
+        <v>51.12984760316952</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.76495619444729</v>
+        <v>70.22112427384842</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.85128650373649</v>
+        <v>72.65329576947089</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>33.70989225358463</v>
+        <v>48.47481328360099</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.789595899421</v>
+        <v>53.23863238398083</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.83657574318726</v>
+        <v>8.622565278330523</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.01299610281134</v>
+        <v>49.51924279191066</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>42.76486059149933</v>
+        <v>64.43458515452907</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.8511910668038</v>
+        <v>69.41836969784144</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12.19154706937167</v>
+        <v>6.141855783552298</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.9032607364712</v>
+        <v>12.89610115146214</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.11743303092321</v>
+        <v>11.91927359186532</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.09924151233415</v>
+        <v>13.86621615606945</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>15.360715741342</v>
+        <v>16.60981608183847</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.19270281835063</v>
+        <v>22.96917682355537</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.19183874619848</v>
+        <v>1.655485247023872</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.90356405901431</v>
+        <v>20.98694088611671</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.11774540822001</v>
+        <v>33.22038979792954</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.09955596660416</v>
+        <v>33.85793201918665</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.36101041611711</v>
+        <v>16.05839841385993</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.19300918645611</v>
+        <v>37.10202797840803</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.19206160933735</v>
+        <v>-2.748031694362499</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.90378191391822</v>
+        <v>16.95404153858241</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.11797109238831</v>
+        <v>29.90093056541593</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.09978082895021</v>
+        <v>32.12553618225274</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>15.36123362843143</v>
+        <v>9.359187595826281</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.19322734941662</v>
+        <v>30.55905126476506</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.19195361665648</v>
+        <v>-4.930880929604502</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.90368234077837</v>
+        <v>13.26671808467604</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.11787218229954</v>
+        <v>23.10387586438679</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.09968201287144</v>
+        <v>26.67330172521273</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>15.3611276490529</v>
+        <v>6.080599069213246</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.19312991346959</v>
+        <v>23.78178840479559</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>32.34220377987081</v>
+        <v>19.75788796310556</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.43602861065433</v>
+        <v>25.35613714219609</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.60464838645862</v>
+        <v>9.995503990140644</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>39.50106164837199</v>
+        <v>20.98342998042532</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.29416601134136</v>
+        <v>23.75228931557337</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.3938240793712</v>
+        <v>30.36092313001178</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.34251898703468</v>
+        <v>46.24269255839801</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.43634599850748</v>
+        <v>51.03755624182023</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.60495342432532</v>
+        <v>17.62931258016702</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.501378459695</v>
+        <v>44.78090032117574</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.29449220730808</v>
+        <v>61.51014717478957</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.39415242681146</v>
+        <v>65.89768881563406</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.34274496983921</v>
+        <v>39.34475493297879</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.43657113461419</v>
+        <v>46.25049143804327</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.6051721820068</v>
+        <v>11.92640941758027</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.50159214755043</v>
+        <v>40.08941524727227</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>41.29471345433616</v>
+        <v>56.80425431889567</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>43.3943727858214</v>
+        <v>62.90473690486347</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32.34264831176934</v>
+        <v>27.59518853938773</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.43647460669676</v>
+        <v>36.15717772155442</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.60506437112722</v>
+        <v>10.39880471699912</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.50149286740624</v>
+        <v>35.63264411356029</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.29461516643347</v>
+        <v>47.53492643103802</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.39427464456232</v>
+        <v>56.01949390559587</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.73388819401995</v>
+        <v>13.96191349819352</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.53316068733083</v>
+        <v>35.55561295834937</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.84495292781315</v>
+        <v>37.39364370409038</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.83482958205677</v>
+        <v>37.21584349586807</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.93339199711265</v>
+        <v>18.99126804105348</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.85043956469181</v>
+        <v>38.82081907708881</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.73418236346953</v>
+        <v>10.75587699809618</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.5334665528836</v>
+        <v>45.15669602992772</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.84526790671781</v>
+        <v>60.54694429934622</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.83514663583118</v>
+        <v>58.89515686934661</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.93368916843364</v>
+        <v>18.70353121704157</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.85074847860733</v>
+        <v>53.42884071391525</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.73440276858095</v>
+        <v>8.485276202062604</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.53368191303767</v>
+        <v>43.30853647410868</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.84549103820999</v>
+        <v>59.57876261604349</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.83536893840283</v>
+        <v>59.47373029221396</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.93390990886164</v>
+        <v>13.94911152375628</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.850964134142</v>
+        <v>48.8869981175004</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.73429717222569</v>
+        <v>9.216274682453811</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>32.53358479033734</v>
+        <v>42.58019343127728</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.84539461564249</v>
+        <v>55.66262755099837</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.83527262004834</v>
+        <v>56.94678854888295</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.93380635335332</v>
+        <v>13.64290939097046</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.8508691741952</v>
+        <v>45.139477389429</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.10441290844746</v>
+        <v>41.42231466472275</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.20514085791848</v>
+        <v>43.96108207562455</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.96277271750335</v>
+        <v>8.044533571509685</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.94076353240663</v>
+        <v>31.8791661358657</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.82980646431968</v>
+        <v>38.88258936745116</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.93675149849723</v>
+        <v>42.8265479220937</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>37.10473072306357</v>
+        <v>68.76021256234178</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>39.20546085022521</v>
+        <v>70.30749981768835</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.96308005894371</v>
+        <v>13.87999214070039</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.94108269438221</v>
+        <v>54.0991044325893</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.83013506498637</v>
+        <v>75.4066789413837</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>47.93708224771073</v>
+        <v>76.92787417424707</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.1049541378789</v>
+        <v>64.01206676199034</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.96329640079878</v>
+        <v>9.694428105280348</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>43.94129393269486</v>
+        <v>50.98160666059563</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>45.830353803854</v>
+        <v>72.43168045736552</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>47.93730009150211</v>
+        <v>75.61496582966605</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>37.10485999864053</v>
+        <v>55.15879152422939</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.20558941211932</v>
+        <v>60.48267295186268</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.96319092484548</v>
+        <v>12.53895925337154</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.94119703825403</v>
+        <v>50.94905748792961</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.83025794038741</v>
+        <v>67.48612055285604</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.93720438449074</v>
+        <v>73.11169977922729</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>12.16902257050651</v>
+        <v>11.52930867863219</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.93036385153916</v>
+        <v>40.46937200296426</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.06190281980392</v>
+        <v>39.26843923777469</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.99531776094147</v>
+        <v>38.92149553945482</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.43794338095596</v>
+        <v>15.85727939631746</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.31429514156845</v>
+        <v>43.00612006311121</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>12.16930714129834</v>
+        <v>3.370719480259293</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.93066005518344</v>
+        <v>44.58185932493619</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.0622078120895</v>
+        <v>56.18679075975733</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.9956247607991</v>
+        <v>54.11126848951167</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.43823103553209</v>
+        <v>11.56938328063726</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.31459447456685</v>
+        <v>53.07973593475133</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>12.16952558036413</v>
+        <v>0.6334736670719074</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.93087342721015</v>
+        <v>42.19848771620275</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.06242889836962</v>
+        <v>54.79357549906052</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.9958450401242</v>
+        <v>54.12365546568543</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.43844975470824</v>
+        <v>6.362955515655653</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.31480808777592</v>
+        <v>48.02310532934676</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>12.16942157136236</v>
+        <v>4.047243267693585</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.93077788669169</v>
+        <v>44.18995574733835</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.06233405897882</v>
+        <v>53.87632002549111</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.99575031009011</v>
+        <v>54.80014907495956</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.43834775502891</v>
+        <v>6.933553480776052</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.31471467571602</v>
+        <v>45.16714104057084</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.39720607041968</v>
+        <v>43.48025025425676</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.43865862267991</v>
+        <v>45.35331377532167</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.65629061288758</v>
+        <v>6.929204753370851</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>39.59093046599548</v>
+        <v>37.28309314480133</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.30781961279328</v>
+        <v>40.61605374199566</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>43.35609901468397</v>
+        <v>44.14585229061451</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.39751398830784</v>
+        <v>65.51822198305614</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.43896864918202</v>
+        <v>66.11523926034079</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.65658854386905</v>
+        <v>8.055964085079534</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>41.30813842453345</v>
+        <v>71.01955789697864</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>43.3564199051571</v>
+        <v>71.86630821083794</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.39773530065254</v>
+        <v>60.36350195080234</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.43918913146433</v>
+        <v>62.87053551308301</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.65680285098272</v>
+        <v>3.394705060987842</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>39.59144934014882</v>
+        <v>50.53649178698224</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>41.30835504996227</v>
+        <v>67.59569868641093</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>43.35663565886819</v>
+        <v>69.95155289968484</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.39764271419763</v>
+        <v>52.7239329586023</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.43909668837721</v>
+        <v>57.13347199897551</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.65669911828551</v>
+        <v>7.630513334482782</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.59135417542895</v>
+        <v>51.90676843131628</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>41.30826091980237</v>
+        <v>64.40161365361924</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>43.35654169053267</v>
+        <v>69.36715093796185</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>7.7192629541205</v>
+        <v>3.214523236664572</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.414931990623</v>
+        <v>10.73485392124755</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.48208550889834</v>
+        <v>11.14653296010973</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.41870219702196</v>
+        <v>11.36908223277946</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.04364207399289</v>
+        <v>15.04439115341287</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.85822457043678</v>
+        <v>24.5266589734249</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>7.719546309863013</v>
+        <v>-5.965846242879554</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.41522695358846</v>
+        <v>13.93793111351827</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.4823892455261</v>
+        <v>26.72892566447562</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.4190079612195</v>
+        <v>25.5084226576277</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>11.0439285909342</v>
+        <v>10.6075303598913</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.85852274167025</v>
+        <v>34.60101189938125</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>7.719768371397647</v>
+        <v>-10.36853561573756</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.41544398479565</v>
+        <v>9.851877123715095</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.48261407831452</v>
+        <v>23.44028243789353</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.41923199226705</v>
+        <v>23.72339987351662</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.04415092718165</v>
+        <v>4.754610027378316</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.85874000663069</v>
+        <v>28.84614181325319</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>7.719662016657521</v>
+        <v>-10.53765855725898</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>23.41534605673221</v>
+        <v>7.990715760141153</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.48251685710849</v>
+        <v>18.87828083394893</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.41913486400419</v>
+        <v>20.56856625260138</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>11.04404657468201</v>
+        <v>4.233346626046139</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.85864420340148</v>
+        <v>24.61706692265187</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.86818955790879</v>
+        <v>22.82642599656102</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.91508675304858</v>
+        <v>26.87557768871046</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19.46160988484568</v>
+        <v>10.09240766161359</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.33927754928877</v>
+        <v>24.77968465958268</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.98891807291663</v>
+        <v>28.33610452604286</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>39.04189360445965</v>
+        <v>33.18709415144751</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.86849629497754</v>
+        <v>44.32888477384482</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.91539562050571</v>
+        <v>47.43955324150693</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.4619068492297</v>
+        <v>14.47337420275475</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>35.33958625121106</v>
+        <v>45.13615959554032</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.9892358841255</v>
+        <v>61.71837879363908</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.04221351554715</v>
+        <v>64.23233616428128</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.86872134970823</v>
+        <v>38.30880492911473</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.91561984975318</v>
+        <v>43.43937397375905</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.46212468359171</v>
+        <v>9.84909568531786</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.33979899615432</v>
+        <v>41.46669050725318</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.98945615800716</v>
+        <v>58.12399827965619</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.04243292244665</v>
+        <v>62.26313571845408</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.86862637032954</v>
+        <v>29.65427320483697</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.91552499848759</v>
+        <v>36.48189671703183</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.4620186573777</v>
+        <v>10.91809183672343</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.33970150089661</v>
+        <v>39.4076875472028</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.98935969660545</v>
+        <v>51.78410613731735</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>39.0423366076103</v>
+        <v>58.32475914325498</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.13454049721888</v>
+        <v>1.809073045048404</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.06236810622774</v>
+        <v>5.227378686829677</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.28871197835883</v>
+        <v>4.03675745196723</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.29151422598835</v>
+        <v>7.199045523429458</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.35849097917633</v>
+        <v>4.150891973331564</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.40566212977976</v>
+        <v>5.940547268640014</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.13483476237166</v>
+        <v>-7.568444541130877</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.06267416226258</v>
+        <v>8.230655209144228</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.28902714543118</v>
+        <v>19.94256535427028</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.29183148430634</v>
+        <v>21.79726137887691</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16.35878826991409</v>
+        <v>-2.891947404799726</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>32.40597125851377</v>
+        <v>13.36762713598015</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.13505863556353</v>
+        <v>-11.40307095461037</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.0628929453492</v>
+        <v>4.745005661197549</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.28925381083785</v>
+        <v>17.15290092425628</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.29205731800402</v>
+        <v>20.59691134980052</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.35901247784446</v>
+        <v>-9.097144226542216</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>32.40619033583199</v>
+        <v>7.296500670984582</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>13.13495043906043</v>
+        <v>-13.09859418588811</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.06279328920373</v>
+        <v>1.616705298758472</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.28915483579598</v>
+        <v>11.17484386844269</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.29195844649269</v>
+        <v>15.95386472604899</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16.35890633428124</v>
+        <v>-11.13041032458041</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>32.4060928561167</v>
+        <v>1.84042278370644</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>33.57326018192491</v>
+        <v>5.049045176050409</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.68794068755821</v>
+        <v>11.30804048061271</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.59085959056467</v>
+        <v>0.4835339281107558</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>40.70131911812414</v>
+        <v>6.753844595264564</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.51386532127687</v>
+        <v>10.17252413427813</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>44.63545293165286</v>
+        <v>18.51921014591015</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>33.57357820680284</v>
+        <v>24.53112697042401</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>35.68826090746339</v>
+        <v>29.98623617221328</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.59116726265658</v>
+        <v>0.6302148583823275</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.70163870844685</v>
+        <v>22.86298222535596</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.51419435436003</v>
+        <v>39.89391618331784</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>44.63578413086613</v>
+        <v>46.02636683690379</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.57380515448046</v>
+        <v>18.0799542386249</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.68848699886611</v>
+        <v>25.64708975059031</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.59138700918769</v>
+        <v>-4.791826649910821</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.70185330500252</v>
+        <v>18.43212287297244</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>42.51441655900964</v>
+        <v>35.42108456426091</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>44.63600543696425</v>
+        <v>43.26748173892106</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.57370847749756</v>
+        <v>7.898179262003492</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.68839046141025</v>
+        <v>17.10358889655465</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.59127899296497</v>
+        <v>-4.295085278650152</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>40.7017539387317</v>
+        <v>16.06855789271061</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>42.51431820919112</v>
+        <v>28.50438180381728</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>44.63590724381892</v>
+        <v>38.72119887461038</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>15.19866701737457</v>
+        <v>14.43038980736129</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.13838686372912</v>
+        <v>41.21629539110195</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.3797993774389</v>
+        <v>43.47597862185295</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.33363371100444</v>
+        <v>43.04533003977951</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18.24383644222828</v>
+        <v>6.46514860765981</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.29750090669687</v>
+        <v>29.50742320066726</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>15.19895650445489</v>
+        <v>7.8017478588452</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.13868812112801</v>
+        <v>47.07476703950798</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.38010958716922</v>
+        <v>62.35758692017734</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.33394594905429</v>
+        <v>60.17178616500779</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.24412893043311</v>
+        <v>3.565097290394828</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.29780520982646</v>
+        <v>41.18203813155101</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>15.19917623307636</v>
+        <v>5.05114394751649</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.13890273269401</v>
+        <v>44.70593476705193</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.38033196265983</v>
+        <v>61.02203229677049</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.33416750883602</v>
+        <v>60.27196727671831</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.24434907191416</v>
+        <v>-1.046823841170056</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.29802019569873</v>
+        <v>36.74547204664829</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>15.19907323982823</v>
+        <v>3.530268772491976</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.13880830033911</v>
+        <v>41.57352936056739</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.38023829346825</v>
+        <v>55.10693344828682</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.33407395058799</v>
+        <v>55.9404888274227</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>18.24424791854423</v>
+        <v>-4.002143404961462</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.29792772243999</v>
+        <v>30.17904291822361</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.48160976384838</v>
+        <v>31.80403031310298</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>37.54391576043417</v>
+        <v>33.80020354009767</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.47462431071656</v>
+        <v>4.71169090043723</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>42.5869126774658</v>
+        <v>32.12050903048878</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>44.40997592450276</v>
+        <v>38.00399961782178</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>46.47858740902686</v>
+        <v>41.56321549730042</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.48192280802402</v>
+        <v>55.59993553968313</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.54423093494615</v>
+        <v>56.310125893281</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.47492708235964</v>
+        <v>7.255407666749345</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.58722734438261</v>
+        <v>50.73628278168495</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.41029987392191</v>
+        <v>70.25840551957008</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.47891345772631</v>
+        <v>71.10253670174829</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.4821455470302</v>
+        <v>51.10045980604262</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.54445283517197</v>
+        <v>53.75767908865843</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.47514275399503</v>
+        <v>3.207729266869318</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.58743784436734</v>
+        <v>47.72383873166889</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>44.41051786371577</v>
+        <v>67.53321069826212</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>46.47913056670333</v>
+        <v>69.91598326884785</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.48205395848449</v>
+        <v>39.86116818258681</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>37.54436139120577</v>
+        <v>44.41356684572325</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.47503983279526</v>
+        <v>4.070908560360419</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.58734358335168</v>
+        <v>45.52237172690634</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>44.41042469646149</v>
+        <v>60.91287078564402</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>46.47903756276664</v>
+        <v>65.90181577580454</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>5.818148547487731</v>
+        <v>5.848038324089853</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.46859018961719</v>
+        <v>7.664151582179752</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.40953950405658</v>
+        <v>3.624223942172943</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.36701169575208</v>
+        <v>6.093009256195824</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>9.010404365458772</v>
+        <v>11.32612281601719</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.77929178493911</v>
+        <v>13.3977780239892</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>5.818431049574674</v>
+        <v>-0.5720390566732654</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.46888426058105</v>
+        <v>13.55453306753578</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.40984229273072</v>
+        <v>21.18861087876543</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.36731653205851</v>
+        <v>22.44599745276535</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.010689944340522</v>
+        <v>9.763212144961198</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.77958897941511</v>
+        <v>26.24435145495131</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.818654176108204</v>
+        <v>-5.734412887470203</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.46910238028635</v>
+        <v>8.51652011172882</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.41006825817145</v>
+        <v>16.76896711288591</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.36754168684907</v>
+        <v>19.67373399534662</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.010913409194762</v>
+        <v>2.283458958851849</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.77980739681696</v>
+        <v>18.66866001332754</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>5.818546467020667</v>
+        <v>-7.982283949383504</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.46900309525952</v>
+        <v>4.268216775334349</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.40996955843798</v>
+        <v>10.16545932379197</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.36744308237652</v>
+        <v>14.45214666385996</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.010807654864086</v>
+        <v>-2.387274698551398</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.77971018918126</v>
+        <v>9.984686593650803</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.6623780379473</v>
+        <v>8.37772830991069</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.72953276548199</v>
+        <v>14.76781730922492</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.49098697988217</v>
+        <v>8.260287364177184</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.32218700332277</v>
+        <v>15.03233813362958</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.84599023501963</v>
+        <v>14.14879278784273</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.91999045494926</v>
+        <v>22.04275476831846</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.66268374239529</v>
+        <v>31.9830208394073</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.72984062054063</v>
+        <v>37.67506808624292</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.49128303441873</v>
+        <v>15.7091106100856</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.32249475542699</v>
+        <v>38.33017923299344</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.84630703972579</v>
+        <v>49.81748292642153</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.92030938073454</v>
+        <v>55.62516975918369</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.66290999492309</v>
+        <v>23.95351710155044</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.73006603905521</v>
+        <v>31.81743581309422</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>17.49150199877894</v>
+        <v>9.368415075673635</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.32270865388239</v>
+        <v>32.74073635283754</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.84652851153175</v>
+        <v>44.10873403784014</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.92052997705593</v>
+        <v>51.70182836221692</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.66281348996505</v>
+        <v>11.1163408887207</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.72996966361469</v>
+        <v>20.65103602005278</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.4913946354957</v>
+        <v>5.791361778458377</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.32260981883266</v>
+        <v>25.7350409136195</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.84643059093746</v>
+        <v>33.05819078138801</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.92043220459959</v>
+        <v>43.03390738549093</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.90604835686318</v>
+        <v>-11.09140886902476</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.75145527516029</v>
+        <v>4.828495725598724</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.82254514236688</v>
+        <v>2.128045777815895</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.77651563806548</v>
+        <v>2.451775068940844</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.17573123205388</v>
+        <v>13.73763703048327</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.13799043007865</v>
+        <v>29.79189541025503</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.90633526089175</v>
+        <v>-18.85932335001387</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.75175388249526</v>
+        <v>9.426381953893593</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.82285259852134</v>
+        <v>18.76420922092147</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.77682512207851</v>
+        <v>17.50200719366076</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.17602122856325</v>
+        <v>9.781227447133528</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.13829217633913</v>
+        <v>40.31212697254414</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>10.90655619034404</v>
+        <v>-21.21403269064558</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.75196972972073</v>
+        <v>7.380131847237262</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.82307623657174</v>
+        <v>17.51751985784515</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.77704794376709</v>
+        <v>17.71947294950912</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.17624244143449</v>
+        <v>5.056507084347185</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.13850826730427</v>
+        <v>35.68768679699461</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.90644972907924</v>
+        <v>-19.28391975722427</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.75187178359631</v>
+        <v>7.750265116598211</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.82297889206387</v>
+        <v>15.50984081377993</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.77695071272888</v>
+        <v>17.17502569388803</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.17613799868834</v>
+        <v>4.513247430269555</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.13841246023345</v>
+        <v>31.56644317572386</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.16220941412783</v>
+        <v>29.60586938616485</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.22440478836106</v>
+        <v>31.90774969251047</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.52798310066931</v>
+        <v>9.715720170171618</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.55009734020524</v>
+        <v>31.03019585862758</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.21517780170537</v>
+        <v>33.80158590055696</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.28463976328491</v>
+        <v>37.623940196905</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.16251980683035</v>
+        <v>51.34847276777451</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.22471731061111</v>
+        <v>52.52452635480152</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.52828344854589</v>
+        <v>12.3835052327948</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>38.55040951813677</v>
+        <v>49.64593726640551</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>40.21549916672665</v>
+        <v>65.23133750559383</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.2849632279094</v>
+        <v>66.50445236879791</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.16274367374388</v>
+        <v>46.44936274903483</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.22494033815613</v>
+        <v>49.5945390862416</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.52850021919014</v>
+        <v>8.21563052870685</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.55062114971878</v>
+        <v>46.42352140610772</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.21571831169275</v>
+        <v>62.09155976152657</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.28518149169272</v>
+        <v>64.93403456961302</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.16264859407964</v>
+        <v>38.04772077238037</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.22484540570728</v>
+        <v>42.95682468379998</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.52839416308506</v>
+        <v>10.18181852833582</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.55052371070128</v>
+        <v>45.37814365176125</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.21562181449839</v>
+        <v>56.94864642727931</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.28508516073647</v>
+        <v>62.27188829176431</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>6.532696627324516</v>
+        <v>11.69228577252835</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.20887827567052</v>
+        <v>14.59900933965303</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.21757447261493</v>
+        <v>12.14562943677836</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.15201174504004</v>
+        <v>13.8433040007074</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.496541307990013</v>
+        <v>7.882124405545323</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.28927889390924</v>
+        <v>9.216481959511224</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>6.532979919809204</v>
+        <v>1.713790073710552</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.20917316717978</v>
+        <v>16.62901392263111</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.21787814595052</v>
+        <v>25.96332000698657</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.15231744052588</v>
+        <v>26.39649182530182</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>9.496827539717719</v>
+        <v>1.15609598917008</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.2895767703378</v>
+        <v>16.57204764880542</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>6.53320267561045</v>
+        <v>-2.287172741754649</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.20939090825129</v>
+        <v>12.85700204235281</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.21810370704782</v>
+        <v>22.92932772805956</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.15254220061596</v>
+        <v>24.88477463731398</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>9.497050695340729</v>
+        <v>-5.088072921732167</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.2897948710313</v>
+        <v>10.34192887929188</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.533094641170223</v>
+        <v>-4.19177655901969</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.20929128556459</v>
+        <v>9.416385598434896</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.21800468295128</v>
+        <v>17.19278568506838</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.15244327750625</v>
+        <v>20.42198477304616</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.496944454608604</v>
+        <v>-7.731616235911847</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.28969716275042</v>
+        <v>4.157995096190913</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.2355146362912</v>
+        <v>6.645543208765627</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.27892785593972</v>
+        <v>11.39022961546561</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.10059326958562</v>
+        <v>8.682903849616746</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.95823872655204</v>
+        <v>15.93988335144642</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.55449024908582</v>
+        <v>17.40336561676453</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>37.60363639656083</v>
+        <v>23.15978198390023</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.23582108458966</v>
+        <v>24.90492456594424</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.27923642859382</v>
+        <v>28.88827377045822</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.10089005444934</v>
+        <v>10.01417613185667</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.95854723994719</v>
+        <v>32.81846476436077</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.55480788356217</v>
+        <v>46.82931788008405</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>37.60395612431159</v>
+        <v>50.40091101456464</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.23604699632818</v>
+        <v>18.33922757168385</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.27946151628269</v>
+        <v>24.35506479317361</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.10110868788005</v>
+        <v>4.636617332936918</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.95876079900086</v>
+        <v>28.31007097726826</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.55502898869188</v>
+        <v>42.34048838006028</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.60417636413921</v>
+        <v>47.54468245885887</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.23594999999538</v>
+        <v>8.019516528238892</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.27936465545455</v>
+        <v>15.58693372175277</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.10100095195972</v>
+        <v>3.563234907984803</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.95866157862376</v>
+        <v>24.28118377103966</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.55493069871797</v>
+        <v>34.30916517574614</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.60407822797585</v>
+        <v>41.77690386559009</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2.929559234469398</v>
+        <v>7.169304021436258</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.46727467976891</v>
+        <v>4.610724912033074</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.36329386058521</v>
+        <v>-0.02255087831126801</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.27558052629686</v>
+        <v>0.008461191698497572</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.034364938550716</v>
+        <v>5.636349999714252</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.68895287497817</v>
+        <v>2.094215488525162</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>2.929838170228056</v>
+        <v>-5.99622640764429</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.46756510877115</v>
+        <v>2.987059035934347</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.36359293644579</v>
+        <v>9.589124547790274</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.27588160380081</v>
+        <v>8.394485193756733</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.034646870213201</v>
+        <v>-4.846276583648052</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.68924634607003</v>
+        <v>5.204606889400377</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.930060580347522</v>
+        <v>-10.31475903774129</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.46778254306319</v>
+        <v>-1.153726451106056</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.36381816729549</v>
+        <v>6.089693844411467</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.27610604138262</v>
+        <v>6.404564574355856</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.034869605297622</v>
+        <v>-11.52114335532174</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.68946406519938</v>
+        <v>-1.506162103072615</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2.929950898832161</v>
+        <v>-9.180108643713812</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.46768120015481</v>
+        <v>-1.34283173242763</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>19.36371735440822</v>
+        <v>3.9689892163758</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.27600532347245</v>
+        <v>5.527211032316355</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.03476182459308</v>
+        <v>-11.13519703375876</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.68936474361848</v>
+        <v>-4.425930721082086</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.52828145826875</v>
+        <v>-1.472972841809327</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.54884193844015</v>
+        <v>0.7657040694802753</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.66002501336432</v>
+        <v>7.871367432637083</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.3788251311272</v>
+        <v>9.922753428972197</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.86842020821998</v>
+        <v>10.49553185509556</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.89564267712428</v>
+        <v>13.99945313292373</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.5285833712358</v>
+        <v>12.04345319419273</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.54914595456067</v>
+        <v>13.53694160873235</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>14.66031749455106</v>
+        <v>5.776494002386539</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.37912923453981</v>
+        <v>22.86006371979307</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.86873330263511</v>
+        <v>35.50045487577519</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.89595784476533</v>
+        <v>36.85861524202711</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.52880887577522</v>
+        <v>4.921430977124256</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.54937064286216</v>
+        <v>8.429100464560971</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.66053574040872</v>
+        <v>-0.07141641162981571</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.37934244485266</v>
+        <v>17.81664068568919</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.86895403550135</v>
+        <v>30.39752310072437</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.89617772029226</v>
+        <v>33.37687243518313</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.52871019997367</v>
+        <v>-1.775398009159279</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.5492720962189</v>
+        <v>3.259950024867276</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.66042653586086</v>
+        <v>1.345843808512836</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.3792416826859</v>
+        <v>16.50582251703208</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.86885413985231</v>
+        <v>25.40684540424031</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.8960779723588</v>
+        <v>30.62130120755976</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.96818722973595</v>
+        <v>19.07726272533533</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.90302994082112</v>
+        <v>27.36607111247683</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.16146462040379</v>
+        <v>22.48899935806038</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>33.17045530277736</v>
+        <v>23.70591061456203</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.0548223219627</v>
+        <v>11.03741873846991</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.11030808781363</v>
+        <v>17.29570551149973</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>13.9684832922257</v>
+        <v>16.77358000435862</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.90333781127889</v>
+        <v>37.82320990930583</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.16178166924442</v>
+        <v>46.64313079118075</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.17077445369783</v>
+        <v>46.37223403947804</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.05512135563154</v>
+        <v>10.98663919016742</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>33.11061897702527</v>
+        <v>32.09807934913481</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.96870842069145</v>
+        <v>14.65358255859439</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.90355785538641</v>
+        <v>36.09801123428488</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.16200964533578</v>
+        <v>45.79447427983406</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.17100159753776</v>
+        <v>47.10099636532154</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.0553468753597</v>
+        <v>6.75989248384283</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.11083937114692</v>
+        <v>28.05428953649624</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>13.96860090121831</v>
+        <v>7.832637628500077</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.90345887601089</v>
+        <v>27.60955369514614</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.16191137709791</v>
+        <v>33.91905247866278</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.17090342867173</v>
+        <v>36.73530949463519</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.05524129327949</v>
+        <v>1.117758147395119</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.11074245373162</v>
+        <v>18.76044594474261</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.30220450834123</v>
+        <v>11.15461956260662</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.42358019188065</v>
+        <v>15.00454998770705</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.39740617937898</v>
+        <v>12.39564182322054</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.51864957515899</v>
+        <v>24.03043768369205</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>43.35974952913878</v>
+        <v>23.21724537239684</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>45.4868006187104</v>
+        <v>28.42244023792476</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.30252435638091</v>
+        <v>38.7549984799431</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.42390224626625</v>
+        <v>41.6169594747635</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.3977157011275</v>
+        <v>20.68016367258367</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.51897103460958</v>
+        <v>48.67788365319582</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.36008049895388</v>
+        <v>62.29086880163332</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.48713376481263</v>
+        <v>65.07610845968192</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.30275267306668</v>
+        <v>34.51023125689366</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.42412970608948</v>
+        <v>39.47556581123214</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.39793669785442</v>
+        <v>17.34255943030091</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.51918688515212</v>
+        <v>46.39008642995752</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.36030400787273</v>
+        <v>60.14901230745077</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.48735637500658</v>
+        <v>64.63334626208321</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.30265658275945</v>
+        <v>19.9879177059871</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.42403375142155</v>
+        <v>26.78016660073474</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.3978292513357</v>
+        <v>13.1068136610594</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.51908808995417</v>
+        <v>39.07190704915696</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.3602062533395</v>
+        <v>47.74248277412674</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.48725877297512</v>
+        <v>54.78141138387566</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>11.88278305323713</v>
+        <v>20.52222513196852</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.60234237106084</v>
+        <v>38.91422640480428</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.67429407378402</v>
+        <v>37.35170095088294</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.63368189005611</v>
+        <v>38.96412190263818</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>14.7705242619884</v>
+        <v>11.86552832961283</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.60572466014677</v>
+        <v>27.5439014213949</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>11.88306878279208</v>
+        <v>13.2480472320183</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.6026397180696</v>
+        <v>43.90442920721185</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.67460021950934</v>
+        <v>54.3999848648092</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.63399006987155</v>
+        <v>54.50416715556099</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.77081291999361</v>
+        <v>8.157308761452622</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.60602498086968</v>
+        <v>38.19123944996581</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>11.88328852763915</v>
+        <v>9.107804682312587</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.60285443015192</v>
+        <v>39.960516172141</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.67482269229443</v>
+        <v>51.16015949953949</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.63421172506782</v>
+        <v>52.8412485165866</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.77103313157948</v>
+        <v>1.57632888439981</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.60624012033288</v>
+        <v>31.59579996232112</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>11.88318384715173</v>
+        <v>9.064516748206881</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.6027582010043</v>
+        <v>38.19958907090604</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.67472708338745</v>
+        <v>46.85316740779258</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.63411622916834</v>
+        <v>50.09256236734737</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>14.77093019073325</v>
+        <v>-0.8081561360013758</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.60614575129441</v>
+        <v>25.47442944576965</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.61670620815636</v>
+        <v>26.5038519408507</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.68361039350606</v>
+        <v>30.68726021365746</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.09160619497694</v>
+        <v>5.401872237834379</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.98692269032674</v>
+        <v>26.06615976769178</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.63869058348182</v>
+        <v>29.27614519068764</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.71225408504216</v>
+        <v>35.08056058756468</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.61701511950118</v>
+        <v>48.32430855454965</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.68392144088532</v>
+        <v>51.47981892833025</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.0919051579449</v>
+        <v>8.596174705144033</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.98723339617362</v>
+        <v>45.0880732182893</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.63901042120384</v>
+        <v>61.06761840541434</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.71257602820666</v>
+        <v>64.42109253322521</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.61723801189306</v>
+        <v>41.34766844500662</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.68414349317514</v>
+        <v>46.59779373786228</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>23.09212093875446</v>
+        <v>2.728203334547015</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.98744408743159</v>
+        <v>40.05343037910031</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.63922860214931</v>
+        <v>55.99574548682126</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.71279332758475</v>
+        <v>61.04633760261542</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.61714437795024</v>
+        <v>30.80263479675675</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.6840500050256</v>
+        <v>37.92276152608157</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>23.09201638475639</v>
+        <v>2.7554736154223</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>38.98734808674494</v>
+        <v>36.90316260601632</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>40.63913354984482</v>
+        <v>48.59642086855065</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.71269844010421</v>
+        <v>56.23358268884964</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.01701162107529</v>
+        <v>12.4210586674647</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.9701156131333</v>
+        <v>32.72773281019369</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.29450666318536</v>
+        <v>32.20516846320974</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.29699148490958</v>
+        <v>32.53469241089253</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.05335109019882</v>
+        <v>9.232032254418836</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.12317811502206</v>
+        <v>26.97283589417583</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.01730765244261</v>
+        <v>7.324532752018367</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.97042344994153</v>
+        <v>40.5086841177139</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.29482367901245</v>
+        <v>53.80475213455074</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.29731058758077</v>
+        <v>52.52915472228803</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.05365008312092</v>
+        <v>7.119473958977988</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.1234889592084</v>
+        <v>39.85791673715148</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.01752959582284</v>
+        <v>4.545475704888741</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.97064030148228</v>
+        <v>38.15678212086398</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.2950483623531</v>
+        <v>52.35534030943194</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.29753443555653</v>
+        <v>52.64134070316629</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.05387246809502</v>
+        <v>2.002763131744072</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.12370621287181</v>
+        <v>34.95730114736236</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>17.01742413639588</v>
+        <v>3.211424910155099</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.97054340508799</v>
+        <v>35.23333585975442</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.29495218206151</v>
+        <v>46.20368702010632</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.297438359313</v>
+        <v>48.03742404168457</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.05376891434046</v>
+        <v>0.1046885474392489</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.12361134386023</v>
+        <v>29.45869472320674</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.3841495288425</v>
+        <v>25.93237053657199</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.49777710860342</v>
+        <v>29.28314676703571</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.18577427222139</v>
+        <v>4.13356802457572</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.31590160154992</v>
+        <v>26.17004456536746</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>46.21826252885811</v>
+        <v>30.37998340874075</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>48.33765220543089</v>
+        <v>35.09583967026218</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.38446933433803</v>
+        <v>51.74483375827457</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.49809910473149</v>
+        <v>53.98619586568664</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.18608351542829</v>
+        <v>8.519212719573982</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.31622277445054</v>
+        <v>47.06925896787349</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.21859320610125</v>
+        <v>65.78735606249136</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>48.33798504305649</v>
+        <v>67.94528647334526</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>37.3846944107124</v>
+        <v>46.6352003571221</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.49832332137306</v>
+        <v>50.96755552634521</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.18630142354368</v>
+        <v>4.097511611526084</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.31643553317734</v>
+        <v>43.73326815027984</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>46.21881352468358</v>
+        <v>62.59310211076568</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>48.33820445993995</v>
+        <v>66.4319973411683</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.38460037715265</v>
+        <v>35.99665948723676</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>39.49822942677864</v>
+        <v>42.205210461589</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.18619595860231</v>
+        <v>5.250869100487176</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>44.316338737366</v>
+        <v>41.84558026574665</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>46.21871777557455</v>
+        <v>55.77171996235508</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>48.33810886693234</v>
+        <v>62.22297766273788</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2.548425072172019</v>
+        <v>20.07586614394321</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.21128237302803</v>
+        <v>36.19185860844684</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>20.31398544131429</v>
+        <v>39.13009624309619</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.37450980985808</v>
+        <v>38.68512964310185</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.859987756352524</v>
+        <v>17.99197606908426</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.64564885713628</v>
+        <v>31.67713354063683</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2.548725966531354</v>
+        <v>15.29223532354473</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>19.21159558674718</v>
+        <v>44.119734941308</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>20.31430807309099</v>
+        <v>60.82399634407466</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.37483461050998</v>
+        <v>58.882163017029</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>5.860291873935893</v>
+        <v>15.19125729296239</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>22.64596534244863</v>
+        <v>43.65597537389057</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2.548964047869404</v>
+        <v>14.36772128416341</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>19.21182835349082</v>
+        <v>43.65701798412174</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.31454914831827</v>
+        <v>61.1728326056124</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.37507482777698</v>
+        <v>60.77926180504687</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.860530377711317</v>
+        <v>11.73219650043712</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.64619848959608</v>
+        <v>40.44751066451137</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>2.548845740377921</v>
+        <v>14.10702176698726</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.21171901316748</v>
+        <v>41.98949822931883</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.3144403933949</v>
+        <v>56.12889597613265</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.37496615219509</v>
+        <v>57.15660340488286</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>5.860414110570893</v>
+        <v>11.53567457948547</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.64609131695483</v>
+        <v>36.8847047081119</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.68656833228126</v>
+        <v>33.20896016080731</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.86295947293512</v>
+        <v>36.0838381900498</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.85256384308506</v>
+        <v>10.95647820088429</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.69843202650033</v>
+        <v>29.12176728552525</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.42235084103044</v>
+        <v>36.89831887716376</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.60644961722725</v>
+        <v>40.70298897192653</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.68689401299883</v>
+        <v>58.1022352417092</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.8632874314501</v>
+        <v>59.97188688477884</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.85287896884526</v>
+        <v>15.674244933905</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.69875960119757</v>
+        <v>50.11070449165389</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.42268818731473</v>
+        <v>72.38106349155241</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>35.60678921072916</v>
+        <v>73.75297868411086</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>23.68713545774886</v>
+        <v>54.63267524659517</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.86352799330682</v>
+        <v>58.57088349257859</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.853112573542</v>
+        <v>13.01121054057328</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.69898783130004</v>
+        <v>48.55293924038857</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.42292443637285</v>
+        <v>70.90255755269213</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.60702453227394</v>
+        <v>73.94298208725216</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.68702899694031</v>
+        <v>45.80498559630898</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.86342164747622</v>
+        <v>51.48912006015742</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.85299460303537</v>
+        <v>14.75846714533879</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.69887893577052</v>
+        <v>47.48422177207318</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.42281648144931</v>
+        <v>64.74911088952409</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.6069167112604</v>
+        <v>70.26979682407021</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.09626680818715</v>
+        <v>10.24574958558425</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.0182203132845</v>
+        <v>28.56205898163831</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.1627793255339</v>
+        <v>26.55098376492722</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.15258858659813</v>
+        <v>27.85380785173559</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.06779749343846</v>
+        <v>6.114696782921566</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.10537492355136</v>
+        <v>22.07943627758119</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.0965586625351</v>
+        <v>8.898270807093819</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.01852393590431</v>
+        <v>40.34943949030479</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.16309197109111</v>
+        <v>50.93388334835967</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.15290330423183</v>
+        <v>50.54398575591378</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.06809227530243</v>
+        <v>6.958350224554746</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.10568151907419</v>
+        <v>38.16287025049391</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>13.0967814686429</v>
+        <v>6.313175399708964</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.01874166163685</v>
+        <v>38.04483149928785</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.16331754964816</v>
+        <v>49.52302596980812</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.15312804880286</v>
+        <v>50.71599872906874</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.06831552613067</v>
+        <v>1.854001682678923</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.10589965034741</v>
+        <v>33.13018583492021</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>13.09667485553761</v>
+        <v>2.126819709044536</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.01864362121778</v>
+        <v>31.6095579398049</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.16322009541294</v>
+        <v>40.58256818535041</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.15303069794891</v>
+        <v>43.53151545982142</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.06821075807284</v>
+        <v>-3.594163454854726</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.10580357547711</v>
+        <v>23.41124340884469</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.19176950669215</v>
+        <v>19.88077300196052</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.28997578895058</v>
+        <v>23.19240659422705</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.32569838525644</v>
+        <v>0.8583735467262947</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.42168587212005</v>
+        <v>21.17818226460339</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.15037355340117</v>
+        <v>23.23011213435349</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.2554544873089</v>
+        <v>28.48242362038719</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.19208491167933</v>
+        <v>47.58635497966681</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.29029336855075</v>
+        <v>49.68858698380269</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.32600343225951</v>
+        <v>8.416296125458285</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.42200281039824</v>
+        <v>45.48551666971149</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.15069984186847</v>
+        <v>60.74801770567096</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.25578292102261</v>
+        <v>63.35666128014812</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.19231088567778</v>
+        <v>42.33254700999545</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.29051848552871</v>
+        <v>46.54547130549072</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.32622220572246</v>
+        <v>3.674898385603637</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.42221644708556</v>
+        <v>41.67722439714687</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.15092105534345</v>
+        <v>57.05805973071791</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>44.25600323585445</v>
+        <v>61.37731263337001</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.19221552017036</v>
+        <v>28.25507413620435</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.29042325633323</v>
+        <v>34.5395696785617</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.32611573127035</v>
+        <v>0.3310623813882607</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>40.42211864808875</v>
+        <v>34.61721096779517</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.15082417936155</v>
+        <v>45.81257214610081</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.25590651426275</v>
+        <v>52.94041302525675</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>10.81102909110098</v>
+        <v>5.266735953523646</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.28754180825857</v>
+        <v>11.06422549741505</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.4253664055796</v>
+        <v>9.427254086461229</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.38138567947696</v>
+        <v>11.05131577439591</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.95149237149135</v>
+        <v>11.68994855023947</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.54781173249897</v>
+        <v>18.27775888510734</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>10.81131476707365</v>
+        <v>-0.3107935660813759</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.28783894765093</v>
+        <v>18.06690679623363</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.42567239445473</v>
+        <v>28.94328582209434</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.3816937256938</v>
+        <v>29.23052387548838</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.95178106416795</v>
+        <v>10.79277388393438</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.54811193600248</v>
+        <v>32.06282593790766</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.81153524261995</v>
+        <v>-5.399792701623216</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.28805449790753</v>
+        <v>13.28082860587379</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.42589569002741</v>
+        <v>24.82009319856837</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.38191620822651</v>
+        <v>26.71545048278234</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>13.95200188872658</v>
+        <v>3.771873728870045</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.54832779401407</v>
+        <v>25.12385420166219</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>10.81142926750922</v>
+        <v>-5.601504959403972</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.28795684000183</v>
+        <v>11.29439795098071</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.42579869652375</v>
+        <v>20.19190509589719</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.38181929532304</v>
+        <v>23.58524090249636</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.95189785962055</v>
+        <v>2.846480534968233</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.54823220550262</v>
+        <v>20.42294066570124</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.62322661206183</v>
+        <v>14.90829099929078</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.68995272359891</v>
+        <v>20.25625308415065</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.14117884234624</v>
+        <v>5.46302431758853</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>37.80111761849832</v>
+        <v>16.4611826779551</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.50502331249326</v>
+        <v>17.77492044688089</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>41.57718707605642</v>
+        <v>24.40926271054745</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.62353545519286</v>
+        <v>40.36264054939808</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.69026372705588</v>
+        <v>44.87662978207456</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.14147774784531</v>
+        <v>13.401670023769</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.80142811530278</v>
+        <v>40.55682769761991</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>39.50534298111425</v>
+        <v>55.13921263662495</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>41.57750887536066</v>
+        <v>59.53508201926364</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.62375904994812</v>
+        <v>33.03688366190353</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>32.69048648437674</v>
+        <v>39.68726135247076</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.14169415735865</v>
+        <v>7.254844553118669</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.80163953875937</v>
+        <v>35.34903026681211</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>39.50556188552785</v>
+        <v>49.87524116635687</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>41.57772690158799</v>
+        <v>56.01335712124227</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.62366423876704</v>
+        <v>23.86570531342634</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.6903917890791</v>
+        <v>32.33349233490218</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.14158840925113</v>
+        <v>6.603581655146126</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>37.80154221664661</v>
+        <v>31.47779572601241</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>39.5054655494944</v>
+        <v>41.64355549305994</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.57763069853328</v>
+        <v>50.32390328269439</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1.909496636717467</v>
+        <v>3.484167804625596</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.54719751594658</v>
+        <v>14.75357057189816</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>19.63459407924682</v>
+        <v>15.23687448088114</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.69595455279813</v>
+        <v>16.95218539133397</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.216081654893401</v>
+        <v>5.217870797325642</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.97693939727321</v>
+        <v>14.37360822524587</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1.909797114595925</v>
+        <v>0.5394543655912081</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>18.54751029761217</v>
+        <v>24.54278272449218</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.63491626612374</v>
+        <v>38.62388758766672</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>21.6962789115187</v>
+        <v>38.93010586286904</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>5.216385356278881</v>
+        <v>4.239396516152805</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>21.9772554509032</v>
+        <v>28.19787989866641</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1.910035570776405</v>
+        <v>0.1686526353820419</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>18.54774344962216</v>
+        <v>24.64519019451444</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.63515773625026</v>
+        <v>39.48223950208084</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>21.69651952450978</v>
+        <v>41.35540550138062</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>5.216624237868711</v>
+        <v>1.280858505243966</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.97748898607224</v>
+        <v>25.49940853940259</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1.909917046340972</v>
+        <v>-1.484503937656232</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.54763387894661</v>
+        <v>21.52917342455114</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.63504874964434</v>
+        <v>33.04215648647479</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>21.69641061537655</v>
+        <v>36.32275169631338</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>5.216507747731217</v>
+        <v>-0.2095075980375505</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.97738157737729</v>
+        <v>20.58544185159378</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.0009807479474</v>
+        <v>13.02934822858445</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.17848739017734</v>
+        <v>18.52459174714388</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.23668300565704</v>
+        <v>-4.987873325424392</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>31.05848598526484</v>
+        <v>8.698053285491465</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>32.76604765220287</v>
+        <v>13.61200150655374</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.95110898967738</v>
+        <v>19.95075364916736</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>23.00130598341136</v>
+        <v>39.5850267674969</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.17881490661286</v>
+        <v>44.17390814538392</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>14.23699773884835</v>
+        <v>2.005593470118793</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.05881315239105</v>
+        <v>31.98652534610617</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>32.76638457804948</v>
+        <v>51.22503254652632</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.95144816583302</v>
+        <v>55.23122061162432</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>23.0015478263911</v>
+        <v>36.57470391526952</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.17905586743762</v>
+        <v>43.25146819520278</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.2372317085228</v>
+        <v>-0.09965799016969257</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.05904175732747</v>
+        <v>30.99734962281674</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.76662121200489</v>
+        <v>50.26319535403614</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.9516838730864</v>
+        <v>55.95810986896784</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.00144112684881</v>
+        <v>26.47351876860334</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.17894928116363</v>
+        <v>34.87598998637075</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>14.23711352250314</v>
+        <v>-0.0771925430717495</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.05893263346469</v>
+        <v>28.1468126126938</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>32.76651302594964</v>
+        <v>42.38612101730159</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.95157581919099</v>
+        <v>50.54187309042506</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.80958728152336</v>
+        <v>16.91218582803922</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.53366093041669</v>
+        <v>37.36211487445645</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.94261880073535</v>
+        <v>40.60992714218041</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.88329411346562</v>
+        <v>39.98865244175387</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>20.78577098091354</v>
+        <v>12.61899626767675</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.62562702676853</v>
+        <v>30.69213818485292</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>17.80987853151744</v>
+        <v>9.516616981891342</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.53396381718616</v>
+        <v>42.4047494331446</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.94293076192639</v>
+        <v>58.75107687603079</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.88360810407583</v>
+        <v>56.49818191688551</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>20.78606518215665</v>
+        <v>8.371097968616152</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.62593291034037</v>
+        <v>40.95999528946079</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.81009681029299</v>
+        <v>7.495714107645778</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.53417706664561</v>
+        <v>40.79190592288695</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.94315168499251</v>
+        <v>58.06113507482</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.88382821856683</v>
+        <v>57.28631622684024</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>20.7862838887188</v>
+        <v>4.533729218227517</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.62614654821095</v>
+        <v>37.32417498801648</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>17.80999432049392</v>
+        <v>6.438671392983732</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.53408300527337</v>
+        <v>38.30973841905109</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.94305843465997</v>
+        <v>52.69110887007018</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.88373506180733</v>
+        <v>53.39185208642687</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.78618319650954</v>
+        <v>3.61753913342093</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.62605440490077</v>
+        <v>33.0137544824953</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>37.96981487396522</v>
+        <v>32.30985638901795</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>40.01941473655179</v>
+        <v>34.53149807943258</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.77466988814516</v>
+        <v>5.387585482682606</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>44.6753483329326</v>
+        <v>27.86402925940173</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>46.65071555669471</v>
+        <v>34.51936858332705</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>48.70620250666963</v>
+        <v>38.2924262984876</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>37.9701296180432</v>
+        <v>54.77751191083181</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>40.01973161185241</v>
+        <v>55.84662978228909</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>28.77497418109084</v>
+        <v>8.263071011164339</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>44.67566438746472</v>
+        <v>46.75952138046317</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>46.65104100519343</v>
+        <v>67.16633896394607</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>48.70653005661363</v>
+        <v>68.36636891147712</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>37.97035092151977</v>
+        <v>50.99008908579579</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>40.01995208325329</v>
+        <v>54.05068578418631</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>28.77518853444284</v>
+        <v>5.052510634460571</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.67587365460017</v>
+        <v>44.60723336000727</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>46.65125767870509</v>
+        <v>65.1894302389871</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>48.70674585654348</v>
+        <v>67.98047898254616</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>37.97025970311513</v>
+        <v>41.94129553951264</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>40.01986099285838</v>
+        <v>46.78609099942769</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>28.77508598932464</v>
+        <v>6.017991298964471</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>44.67577964260316</v>
+        <v>42.71830310755301</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>46.65116480096276</v>
+        <v>58.73395994729084</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>48.70665312375671</v>
+        <v>64.03345431433114</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>13.93357134464391</v>
+        <v>8.826149365257745</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.84736101006318</v>
+        <v>26.96069632026737</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>31.0352009096606</v>
+        <v>25.34226288629038</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>33.0230039174936</v>
+        <v>26.3223254586011</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>16.91898204879487</v>
+        <v>6.475903682323217</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>32.94827242081703</v>
+        <v>22.29293635104572</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>13.93386373274119</v>
+        <v>8.776226919991412</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.8476651626975</v>
+        <v>40.12584736407371</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>31.03551410673673</v>
+        <v>51.00083484375644</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>33.0233191863303</v>
+        <v>50.27546194590802</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>16.91927735041078</v>
+        <v>8.177457911066664</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>32.94857953206363</v>
+        <v>39.29557103794839</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>13.93408622202446</v>
+        <v>6.453135513225813</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.84788257703864</v>
+        <v>38.12558494300748</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>31.03573935088669</v>
+        <v>49.87914605125185</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.0235435970089</v>
+        <v>50.73743010737407</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>16.91950027490499</v>
+        <v>3.258564364814088</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.94879734254557</v>
+        <v>34.49133374805898</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>13.93398006308168</v>
+        <v>1.630751321251733</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.84778498525881</v>
+        <v>31.04005294535768</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>31.03564237244122</v>
+        <v>40.44169030074154</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>33.02344671938779</v>
+        <v>43.06649892823417</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>16.91939598758751</v>
+        <v>-2.603649196407265</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>32.94870174309515</v>
+        <v>24.36461834220919</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>34.07690453170297</v>
+        <v>20.06364052522541</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>36.17348790412778</v>
+        <v>23.39656024345531</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>25.10008244163696</v>
+        <v>-0.3431457223537571</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>41.18770496864654</v>
+        <v>19.61208131595351</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>42.95556007857061</v>
+        <v>21.0568812627031</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>45.05880194853778</v>
+        <v>26.35233638789184</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>34.07722047283116</v>
+        <v>48.61219839019087</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>36.17380601960021</v>
+        <v>50.72014523259175</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>25.10038796211459</v>
+        <v>8.209018221891437</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.18802237604798</v>
+        <v>44.97465629066637</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>42.95588685472809</v>
+        <v>59.55252019452267</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>45.05913086983044</v>
+        <v>62.19362093151791</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>34.07744610358426</v>
+        <v>43.58046785260335</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>36.1740307935017</v>
+        <v>47.79498052095052</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.10060643261468</v>
+        <v>3.639172659281126</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.18823571533469</v>
+        <v>41.3780938202131</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>42.95610774971351</v>
+        <v>56.07131560423643</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>45.05935086634201</v>
+        <v>60.42089894440601</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>34.07735124052751</v>
+        <v>29.22932942543435</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>36.17393606448893</v>
+        <v>35.52831640485475</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.10050038473413</v>
+        <v>-0.278686721944144</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>41.18813833795112</v>
+        <v>33.74144766775585</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>42.95601132053689</v>
+        <v>44.38090441953146</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>45.05925458877228</v>
+        <v>51.55296946361601</v>
       </c>
     </row>
   </sheetData>
